--- a/MOUSE BRAIN PROTEOME HRMS/UNIQUE/Medulla_UNIQUE.xlsx
+++ b/MOUSE BRAIN PROTEOME HRMS/UNIQUE/Medulla_UNIQUE.xlsx
@@ -14,813 +14,1620 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="538">
   <si>
     <t>Accession Name</t>
   </si>
   <si>
+    <t>Description</t>
+  </si>
+  <si>
     <t>BICL1_MOUSE</t>
   </si>
   <si>
+    <t>BICD family-like cargo adapter 1 (Bicaudal D-related protein 1) (BICD-related protein 1) (BICDR-1) (Coiled-coil domain-containing protein 64A)</t>
+  </si>
+  <si>
     <t>CACO2_MOUSE</t>
   </si>
   <si>
+    <t>Calcium-binding and coiled-coil domain-containing protein 2 (Nuclear domain 10 protein NDP52) (Nuclear domain 10 protein 52)</t>
+  </si>
+  <si>
     <t>CDR2L_MOUSE</t>
   </si>
   <si>
+    <t>Cerebellar degeneration-related protein 2-like</t>
+  </si>
+  <si>
     <t>MEIOC_MOUSE</t>
   </si>
   <si>
+    <t>Meiosis-specific coiled-coil domain-containing protein MEIOC (Meiosis-specific with coiled-coil domain protein)</t>
+  </si>
+  <si>
     <t>AMRA1_MOUSE</t>
   </si>
   <si>
+    <t>Activating molecule in BECN1-regulated autophagy protein 1</t>
+  </si>
+  <si>
     <t>TPRN_MOUSE</t>
   </si>
   <si>
+    <t>Taperin</t>
+  </si>
+  <si>
     <t>HMCN2_MOUSE</t>
   </si>
   <si>
+    <t>Hemicentin-2</t>
+  </si>
+  <si>
     <t>CNTLN_MOUSE</t>
   </si>
   <si>
+    <t>Centlein (Centrosomal protein)</t>
+  </si>
+  <si>
     <t>5NT1A_MOUSE</t>
   </si>
   <si>
+    <t>Cytosolic 5'-nucleotidase 1A (cN1A) (EC 3.1.3.5) (Cytosolic 5'-nucleotidase IA) (cN-IA)</t>
+  </si>
+  <si>
     <t>GT253_MOUSE</t>
   </si>
   <si>
+    <t>Inactive glycosyltransferase 25 family member 3 (Cerebral endothelial cell adhesion molecule)</t>
+  </si>
+  <si>
     <t>TM215_MOUSE</t>
   </si>
   <si>
+    <t>Transmembrane protein 215</t>
+  </si>
+  <si>
     <t>PRCA1_MOUSE</t>
   </si>
   <si>
+    <t>Protein PROCA1</t>
+  </si>
+  <si>
     <t>GRIK3_MOUSE</t>
   </si>
   <si>
+    <t>Glutamate receptor ionotropic, kainate 3 (GluK3) (Glutamate receptor 7) (GluR-7) (GluR7)</t>
+  </si>
+  <si>
     <t>YTDC2_MOUSE</t>
   </si>
   <si>
+    <t>3'-5' RNA helicase YTHDC2 (EC 3.6.4.13) (Keen to exit meiosis leaving testes under-populated protein) (Ketu) (YTH domain-containing protein C2) (mYTHDC2)</t>
+  </si>
+  <si>
     <t>ZN382_MOUSE</t>
   </si>
   <si>
+    <t>Zinc finger protein 382 (KRAB/zinc finger suppressor protein 1) (KS1) (Multiple zinc finger and krueppel-associated box protein KS1)</t>
+  </si>
+  <si>
     <t>AGRG4_MOUSE</t>
   </si>
   <si>
+    <t>Adhesion G-protein coupled receptor G4 (G-protein coupled receptor 112)</t>
+  </si>
+  <si>
     <t>ITA9_MOUSE</t>
   </si>
   <si>
+    <t>Integrin alpha-9</t>
+  </si>
+  <si>
     <t>CCDC8_MOUSE</t>
   </si>
   <si>
+    <t>Coiled-coil domain-containing protein 8 homolog</t>
+  </si>
+  <si>
     <t>PRR12_MOUSE</t>
   </si>
   <si>
+    <t>Proline-rich protein 12</t>
+  </si>
+  <si>
     <t>CC85C_MOUSE</t>
   </si>
   <si>
+    <t>Coiled-coil domain-containing protein 85C</t>
+  </si>
+  <si>
     <t>BD1L1_MOUSE</t>
   </si>
   <si>
+    <t>Biorientation of chromosomes in cell division protein 1-like 1</t>
+  </si>
+  <si>
     <t>HDAC1_MOUSE</t>
   </si>
   <si>
+    <t>Histone deacetylase 1 (HD1) (EC 3.5.1.98)</t>
+  </si>
+  <si>
     <t>TERF2_MOUSE</t>
   </si>
   <si>
+    <t>Telomeric repeat-binding factor 2 (TTAGGG repeat-binding factor 2) (Telomeric DNA-binding protein)</t>
+  </si>
+  <si>
     <t>PTN9_MOUSE</t>
   </si>
   <si>
+    <t>Tyrosine-protein phosphatase non-receptor type 9 (EC 3.1.3.48) (Protein-tyrosine phosphatase MEG2) (PTPase MEG2)</t>
+  </si>
+  <si>
     <t>NDUA1_MOUSE</t>
   </si>
   <si>
+    <t>NADH dehydrogenase [ubiquinone] 1 alpha subcomplex subunit 1 (Complex I-MWFE) (CI-MWFE) (NADH-ubiquinone oxidoreductase MWFE subunit)</t>
+  </si>
+  <si>
     <t>OX2G_MOUSE</t>
   </si>
   <si>
+    <t>OX-2 membrane glycoprotein (MRC OX-2 antigen) (CD antigen CD200)</t>
+  </si>
+  <si>
     <t>TOP3A_MOUSE</t>
   </si>
   <si>
+    <t>DNA topoisomerase 3-alpha (EC 5.6.2.1) (DNA topoisomerase III alpha)</t>
+  </si>
+  <si>
     <t>FCN2_MOUSE</t>
   </si>
   <si>
+    <t>Ficolin-2 (Collagen/fibrinogen domain-containing protein 2) (Ficolin-B) (Ficolin-beta) (L-ficolin)</t>
+  </si>
+  <si>
     <t>AVIL_MOUSE</t>
   </si>
   <si>
+    <t>Advillin (Actin-binding protein DOC6) (p92)</t>
+  </si>
+  <si>
     <t>DHCR7_MOUSE</t>
   </si>
   <si>
+    <t>7-dehydrocholesterol reductase (7-DHC reductase) (EC 1.3.1.21) (Sterol Delta(7)-reductase)</t>
+  </si>
+  <si>
     <t>RBBP9_MOUSE</t>
   </si>
   <si>
+    <t>Putative hydrolase RBBP9 (EC 3.-.-.-) (B5T-overexpressed gene protein) (Protein BOG) (Retinoblastoma-binding protein 9) (RBBP-9)</t>
+  </si>
+  <si>
     <t>YMEL1_MOUSE</t>
   </si>
   <si>
+    <t>ATP-dependent zinc metalloprotease YME1L1 (EC 3.4.24.-) (ATP-dependent metalloprotease FtsH1) (YME1-like protein 1)</t>
+  </si>
+  <si>
     <t>KV1A1_MOUSE</t>
   </si>
   <si>
+    <t>Ig kappa chain V-I region S107A</t>
+  </si>
+  <si>
     <t>B3AT_MOUSE</t>
   </si>
   <si>
+    <t>Band 3 anion transport protein (Anion exchange protein 1) (AE 1) (Anion exchanger 1) (MEB3) (Solute carrier family 4 member 1) (CD antigen CD233)</t>
+  </si>
+  <si>
     <t>K1C18_MOUSE</t>
   </si>
   <si>
+    <t>Keratin, type I cytoskeletal 18 (Cytokeratin endo B) (Keratin D) (Cytokeratin-18) (CK-18) (Keratin-18) (K18)</t>
+  </si>
+  <si>
     <t>SOMA_MOUSE</t>
   </si>
   <si>
+    <t>Somatotropin (Growth hormone)</t>
+  </si>
+  <si>
     <t>RPB1_MOUSE</t>
   </si>
   <si>
+    <t>DNA-directed RNA polymerase II subunit RPB1 (RNA polymerase II subunit B1) (EC 2.7.7.6) (DNA-directed RNA polymerase II subunit A) (DNA-directed RNA polymerase III largest subunit)</t>
+  </si>
+  <si>
     <t>LRC4B_MOUSE</t>
   </si>
   <si>
+    <t>Leucine-rich repeat-containing protein 4B (Netrin-G3 ligand) (NGL-3)</t>
+  </si>
+  <si>
     <t>FABPL_MOUSE</t>
   </si>
   <si>
+    <t>Fatty acid-binding protein, liver (14 kDa selenium-binding protein) (Fatty acid-binding protein 1) (Liver-type fatty acid-binding protein) (L-FABP)</t>
+  </si>
+  <si>
     <t>CP2B9_MOUSE</t>
   </si>
   <si>
+    <t>Cytochrome P450 2B9 (EC 1.14.14.1) (CYPIIB9) (Cytochrome P450 clone PF26) (Cytochrome P450-16-alpha) (Testosterone 16-alpha hydroxylase)</t>
+  </si>
+  <si>
     <t>CAH1_MOUSE</t>
   </si>
   <si>
+    <t>Carbonic anhydrase 1 (EC 4.2.1.1) (Carbonate dehydratase I) (Carbonic anhydrase I) (CA-I)</t>
+  </si>
+  <si>
     <t>HMOX1_MOUSE</t>
   </si>
   <si>
+    <t>Heme oxygenase 1 (HO-1) (EC 1.14.14.18) (P32 protein)</t>
+  </si>
+  <si>
     <t>PERI_MOUSE</t>
   </si>
   <si>
+    <t>Peripherin</t>
+  </si>
+  <si>
     <t>BASI_MOUSE</t>
   </si>
   <si>
+    <t>Basigin (Basic immunoglobulin superfamily) (HT7 antigen) (Membrane glycoprotein gp42) (CD antigen CD147)</t>
+  </si>
+  <si>
     <t>TGM2_MOUSE</t>
   </si>
   <si>
+    <t>Protein-glutamine gamma-glutamyltransferase 2 (EC 2.3.2.13) (Tissue transglutaminase) (Transglutaminase C) (TG(C)) (TGC) (TGase C) (Transglutaminase-2) (TGase-2)</t>
+  </si>
+  <si>
     <t>UBF1_MOUSE</t>
   </si>
   <si>
+    <t>Nucleolar transcription factor 1 (Upstream-binding factor 1) (UBF-1)</t>
+  </si>
+  <si>
     <t>CFTR_MOUSE</t>
   </si>
   <si>
+    <t>Cystic fibrosis transmembrane conductance regulator (CFTR) (ATP-binding cassette sub-family C member 7) (Channel conductance-controlling ATPase) (EC 5.6.1.6) (cAMP-dependent chloride channel)</t>
+  </si>
+  <si>
     <t>PSB8_MOUSE</t>
   </si>
   <si>
+    <t>Proteasome subunit beta type-8 (EC 3.4.25.1) (Low molecular mass protein 7) (Macropain subunit C13) (Multicatalytic endopeptidase complex subunit C13) (Proteasome component C13) (Proteasome subunit beta-5i)</t>
+  </si>
+  <si>
     <t>PTN22_MOUSE</t>
   </si>
   <si>
+    <t>Tyrosine-protein phosphatase non-receptor type 22 (EC 3.1.3.48) (Hematopoietic cell protein-tyrosine phosphatase 70Z-PEP) (PEST-domain phosphatase) (PEP)</t>
+  </si>
+  <si>
     <t>RET_MOUSE</t>
   </si>
   <si>
+    <t>Proto-oncogene tyrosine-protein kinase receptor Ret (EC 2.7.10.1) (Proto-oncogene c-Ret) [Cleaved into: Soluble RET kinase fragment; Extracellular cell-membrane anchored RET cadherin 120 kDa fragment]</t>
+  </si>
+  <si>
     <t>RFC1_MOUSE</t>
   </si>
   <si>
+    <t>Replication factor C subunit 1 (A1-P145) (Activator 1 140 kDa subunit) (A1 140 kDa subunit) (Activator 1 large subunit) (Activator 1 subunit 1) (Differentiation-specific element-binding protein) (ISRE-binding protein) (Replication factor C 140 kDa subunit) (RF-C 140 kDa subunit) (RFC140) (Replication factor C large subunit)</t>
+  </si>
+  <si>
     <t>TAGL_MOUSE</t>
   </si>
   <si>
+    <t>Transgelin (Actin-associated protein p27) (Smooth muscle protein 22-alpha) (SM22-alpha)</t>
+  </si>
+  <si>
     <t>SOX7_MOUSE</t>
   </si>
   <si>
+    <t>Transcription factor SOX-7 (mSOX7)</t>
+  </si>
+  <si>
     <t>ADX_MOUSE</t>
   </si>
   <si>
+    <t>Adrenodoxin, mitochondrial (Adrenal ferredoxin) (Ferredoxin-1)</t>
+  </si>
+  <si>
     <t>ARY1_MOUSE</t>
   </si>
   <si>
+    <t>Arylamine N-acetyltransferase 1 (EC 2.3.1.5) (Arylamide acetylase 1) (N-acetyltransferase type 1) (NAT-1)</t>
+  </si>
+  <si>
     <t>ICAL_MOUSE</t>
   </si>
   <si>
+    <t>Calpastatin (Calpain inhibitor)</t>
+  </si>
+  <si>
     <t>OPSB_MOUSE</t>
   </si>
   <si>
+    <t>Short-wave-sensitive opsin 1 (S opsin) (Blue cone photoreceptor pigment) (Blue-sensitive opsin) (BOP) (Short wavelength-sensitive cone opsin)</t>
+  </si>
+  <si>
     <t>ADCY9_MOUSE</t>
   </si>
   <si>
+    <t>Adenylate cyclase type 9 (EC 4.6.1.1) (ATP pyrophosphate-lyase 9) (Adenylate cyclase type IX) (Adenylyl cyclase 9) (AC9) (Adenylyl cyclase type 10) (ACTP10)</t>
+  </si>
+  <si>
     <t>DPOG1_MOUSE</t>
   </si>
   <si>
+    <t>DNA polymerase subunit gamma-1 (EC 2.7.7.7) (Mitochondrial DNA polymerase catalytic subunit) (PolG-alpha)</t>
+  </si>
+  <si>
     <t>NPHP4_MOUSE</t>
   </si>
   <si>
+    <t>Nephrocystin-4 (Nephroretinin)</t>
+  </si>
+  <si>
     <t>RAB2B_MOUSE</t>
   </si>
   <si>
+    <t>Ras-related protein Rab-2B</t>
+  </si>
+  <si>
     <t>SUMO2_MOUSE</t>
   </si>
   <si>
+    <t>Small ubiquitin-related modifier 2 (SUMO-2) (SMT3 homolog 2) (Ubiquitin-like protein SMT3B) (Smt3B)</t>
+  </si>
+  <si>
     <t>PP1G_MOUSE</t>
   </si>
   <si>
+    <t>Serine/threonine-protein phosphatase PP1-gamma catalytic subunit (PP-1G) (EC 3.1.3.16) (Protein phosphatase 1C catalytic subunit)</t>
+  </si>
+  <si>
     <t>LRIG1_MOUSE</t>
   </si>
   <si>
+    <t>Leucine-rich repeats and immunoglobulin-like domains protein 1 (LIG-1)</t>
+  </si>
+  <si>
     <t>PKN1_MOUSE</t>
   </si>
   <si>
+    <t>Serine/threonine-protein kinase N1 (EC 2.7.11.13) (Protein kinase C-like 1) (Protein kinase C-like PKN) (Protein-kinase C-related kinase 1) (Serine-threonine protein kinase N)</t>
+  </si>
+  <si>
     <t>RAD50_MOUSE</t>
   </si>
   <si>
+    <t>DNA repair protein RAD50 (mRad50) (EC 3.6.-.-)</t>
+  </si>
+  <si>
     <t>CTR3_MOUSE</t>
   </si>
   <si>
+    <t>Cationic amino acid transporter 3 (CAT-3) (CAT3) (Cationic amino acid transporter y+) (Solute carrier family 7 member 3)</t>
+  </si>
+  <si>
     <t>ANXA4_MOUSE</t>
   </si>
   <si>
+    <t>Annexin A4 (Annexin IV) (Annexin-4)</t>
+  </si>
+  <si>
     <t>PRGR_MOUSE</t>
   </si>
   <si>
+    <t>Progesterone receptor (PR) (Nuclear receptor subfamily 3 group C member 3)</t>
+  </si>
+  <si>
     <t>CBPC4_MOUSE</t>
   </si>
   <si>
+    <t>Cytosolic carboxypeptidase 4 (EC 3.4.17.-) (ATP/GTP-binding protein-like 1)</t>
+  </si>
+  <si>
     <t>KNDC1_MOUSE</t>
   </si>
   <si>
+    <t>Kinase non-catalytic C-lobe domain-containing protein 1 (KIND domain-containing protein 1) (Protein very KIND) (v-KIND) (Ras-GEF domain-containing family member 2)</t>
+  </si>
+  <si>
     <t>K2C80_MOUSE</t>
   </si>
   <si>
+    <t>Keratin, type II cytoskeletal 80 (Cytokeratin-80) (CK-80) (Keratin-80) (K80) (Type-II keratin Kb20)</t>
+  </si>
+  <si>
     <t>FA83H_MOUSE</t>
   </si>
   <si>
+    <t>Protein FAM83H</t>
+  </si>
+  <si>
     <t>NSUN2_MOUSE</t>
   </si>
   <si>
+    <t>RNA cytosine C(5)-methyltransferase NSUN2 (EC 2.1.1.-) (Myc-induced SUN domain-containing protein) (Misu) (NOL1/NOP2/Sun domain family member 2) (mRNA cytosine C(5)-methyltransferase) (EC 2.1.1.-) (tRNA cytosine C(5)-methyltransferase) (EC 2.1.1.-) (EC 2.1.1.203)</t>
+  </si>
+  <si>
     <t>LIN41_MOUSE</t>
   </si>
   <si>
+    <t>E3 ubiquitin-protein ligase TRIM71 (EC 2.3.2.27) (Protein lin-41 homolog) (mLin41) (RING-type E3 ubiquitin transferase TRIM71) (Tripartite motif-containing protein 71)</t>
+  </si>
+  <si>
     <t>P4K2A_MOUSE</t>
   </si>
   <si>
+    <t>Phosphatidylinositol 4-kinase type 2-alpha (EC 2.7.1.67) (Phosphatidylinositol 4-kinase type II-alpha)</t>
+  </si>
+  <si>
     <t>COSA1_MOUSE</t>
   </si>
   <si>
+    <t>Collagen alpha-1(XXVIII) chain</t>
+  </si>
+  <si>
     <t>CA146_MOUSE</t>
   </si>
   <si>
+    <t>Uncharacterized protein C1orf146 homolog</t>
+  </si>
+  <si>
     <t>HMHA1_MOUSE</t>
   </si>
   <si>
+    <t>Rho GTPase-activating protein 45 (Minor histocompatibility protein HA-1)</t>
+  </si>
+  <si>
     <t>TAM41_MOUSE</t>
   </si>
   <si>
+    <t>Phosphatidate cytidylyltransferase, mitochondrial (EC 2.7.7.41) (CDP-diacylglycerol synthase) (CDP-DAG synthase) (Mitochondrial translocator assembly and maintenance protein 41 homolog) (TAM41)</t>
+  </si>
+  <si>
     <t>UAP1L_MOUSE</t>
   </si>
   <si>
+    <t>UDP-N-acetylhexosamine pyrophosphorylase-like protein 1 (EC 2.7.7.-)</t>
+  </si>
+  <si>
     <t>SRSF6_MOUSE</t>
   </si>
   <si>
+    <t>Serine/arginine-rich splicing factor 6 (Pre-mRNA-splicing factor SRP55) (Splicing factor, arginine/serine-rich 6)</t>
+  </si>
+  <si>
     <t>MARH9_MOUSE</t>
   </si>
   <si>
+    <t>E3 ubiquitin-protein ligase MARCHF9 (EC 2.3.2.27) (Membrane-associated RING finger protein 9) (Membrane-associated RING-CH protein IX) (MARCH-IX) (RING-type E3 ubiquitin transferase MARCHF9)</t>
+  </si>
+  <si>
     <t>M3K9_MOUSE</t>
   </si>
   <si>
+    <t>Mitogen-activated protein kinase kinase kinase 9 (EC 2.7.11.25)</t>
+  </si>
+  <si>
     <t>PDE4C_MOUSE</t>
   </si>
   <si>
+    <t>cAMP-specific 3',5'-cyclic phosphodiesterase 4C (EC 3.1.4.53)</t>
+  </si>
+  <si>
     <t>ZY11B_MOUSE</t>
   </si>
   <si>
+    <t>Protein zyg-11 homolog B</t>
+  </si>
+  <si>
     <t>TNR6C_MOUSE</t>
   </si>
   <si>
+    <t>Trinucleotide repeat-containing gene 6C protein</t>
+  </si>
+  <si>
     <t>UBP19_MOUSE</t>
   </si>
   <si>
+    <t>Ubiquitin carboxyl-terminal hydrolase 19 (EC 3.4.19.12) (Deubiquitinating enzyme 19) (Ubiquitin thioesterase 19) (Ubiquitin-specific-processing protease 19)</t>
+  </si>
+  <si>
     <t>ANR27_MOUSE</t>
   </si>
   <si>
+    <t>Ankyrin repeat domain-containing protein 27 (VPS9 domain-containing protein) (VPS9-ankyrin-repeat protein)</t>
+  </si>
+  <si>
     <t>MINY4_MOUSE</t>
   </si>
   <si>
+    <t>Probable ubiquitin carboxyl-terminal hydrolase MINDY-4 (EC 3.4.19.12) (Probable deubiquitinating enzyme MINDY-4)</t>
+  </si>
+  <si>
     <t>MRCKA_MOUSE</t>
   </si>
   <si>
+    <t>Serine/threonine-protein kinase MRCK alpha (EC 2.7.11.1) (CDC42-binding protein kinase alpha)</t>
+  </si>
+  <si>
     <t>KDM7A_MOUSE</t>
   </si>
   <si>
+    <t>Lysine-specific demethylase 7A (EC 1.14.11.-) (JmjC domain-containing histone demethylation protein 1D) (Lysine-specific demethylase 7)</t>
+  </si>
+  <si>
     <t>ANR53_MOUSE</t>
   </si>
   <si>
+    <t>Ankyrin repeat domain-containing protein 53</t>
+  </si>
+  <si>
     <t>TMPSC_MOUSE</t>
   </si>
   <si>
+    <t>Transmembrane protease serine 12 (EC 3.4.21.-)</t>
+  </si>
+  <si>
     <t>N42L1_MOUSE</t>
   </si>
   <si>
+    <t>NEDD4-binding protein 2-like 1</t>
+  </si>
+  <si>
     <t>ABL2_MOUSE</t>
   </si>
   <si>
+    <t>Tyrosine-protein kinase ABL2 (EC 2.7.10.2) (Abelson murine leukemia viral oncogene homolog 2) (Abelson tyrosine-protein kinase 2) (Abelson-related gene protein) (Tyrosine-protein kinase ARG)</t>
+  </si>
+  <si>
     <t>MOT11_MOUSE</t>
   </si>
   <si>
+    <t>Monocarboxylate transporter 11 (MCT 11) (Solute carrier family 16 member 11)</t>
+  </si>
+  <si>
     <t>DPH1_MOUSE</t>
   </si>
   <si>
+    <t>2-(3-amino-3-carboxypropyl)histidine synthase subunit 1 (EC 2.5.1.108) (Diphthamide biosynthesis protein 1) (Diphtheria toxin resistance protein 1) (Ovarian cancer-associated gene 1 protein homolog) (S-adenosyl-L-methionine:L-histidine 3-amino-3-carboxypropyltransferase 1)</t>
+  </si>
+  <si>
     <t>K0100_MOUSE</t>
   </si>
   <si>
+    <t>Protein KIAA0100</t>
+  </si>
+  <si>
     <t>EPHA1_MOUSE</t>
   </si>
   <si>
+    <t>Ephrin type-A receptor 1 (mEpha1) (EC 2.7.10.1) (Embryonic stem cell kinase) (Tyrosine-protein kinase receptor ESK)</t>
+  </si>
+  <si>
     <t>OL149_MOUSE</t>
   </si>
   <si>
+    <t>Olfactory receptor 149 (Odorant receptor M31) (Olfactory receptor 224-8) (Olfactory receptor 7G)</t>
+  </si>
+  <si>
     <t>CP250_MOUSE</t>
   </si>
   <si>
+    <t>Centrosome-associated protein CEP250 (250 kDa centrosomal protein) (Cep250) (Centrosomal Nek2-associated protein 1) (C-Nap1) (Centrosomal protein 2) (Intranuclear matrix protein)</t>
+  </si>
+  <si>
     <t>MRC1_MOUSE</t>
   </si>
   <si>
+    <t>Macrophage mannose receptor 1 (MMR) (CD antigen CD206)</t>
+  </si>
+  <si>
     <t>ZP1_MOUSE</t>
   </si>
   <si>
+    <t>Zona pellucida sperm-binding protein 1 (Zona pellucida glycoprotein 1) (Zp-1) [Cleaved into: Processed zona pellucida sperm-binding protein 1]</t>
+  </si>
+  <si>
     <t>INSM1_MOUSE</t>
   </si>
   <si>
+    <t>Insulinoma-associated protein 1 (Zinc finger protein IA-1)</t>
+  </si>
+  <si>
     <t>CP2CT_MOUSE</t>
   </si>
   <si>
+    <t>Cytochrome P450 2C29 (EC 1.14.14.1) (Aldehyde oxygenase) (CYPIIC29) (Cytochrome P-450 MUT-2)</t>
+  </si>
+  <si>
     <t>CTNA3_MOUSE</t>
   </si>
   <si>
+    <t>Catenin alpha-3 (Alpha T-catenin) (Cadherin-associated protein)</t>
+  </si>
+  <si>
     <t>RGPA1_MOUSE</t>
   </si>
   <si>
+    <t>Ral GTPase-activating protein subunit alpha-1 (GAP-related-interacting partner to E12) (GRIPE) (GTPase-activating RapGAP domain-like 1) (Tuberin-like protein 1) (p240)</t>
+  </si>
+  <si>
     <t>K2C1B_MOUSE</t>
   </si>
   <si>
+    <t>Keratin, type II cytoskeletal 1b (Cytokeratin-1B) (CK-1B) (Embryonic type II keratin-1) (Keratin-77) (K77) (Type-II keratin Kb39)</t>
+  </si>
+  <si>
     <t>KRT87_MOUSE</t>
   </si>
   <si>
+    <t>Keratin, type II cuticular 87 (Keratin-87) (K87)</t>
+  </si>
+  <si>
     <t>CAN11_MOUSE</t>
   </si>
   <si>
+    <t>Calpain-11 (EC 3.4.22.-) (Calcium-activated neutral proteinase 11) (CANP 11)</t>
+  </si>
+  <si>
     <t>ZN521_MOUSE</t>
   </si>
   <si>
+    <t>Zinc finger protein 521 (Ecotropic viral integration site 3 protein)</t>
+  </si>
+  <si>
     <t>ADCK2_MOUSE</t>
   </si>
   <si>
+    <t>Uncharacterized aarF domain-containing protein kinase 2 (EC 2.7.11.-)</t>
+  </si>
+  <si>
     <t>MREG_MOUSE</t>
   </si>
   <si>
+    <t>Melanoregulin (Dilute suppressor protein) (Whn-dependent transcript 2)</t>
+  </si>
+  <si>
     <t>PPRC1_MOUSE</t>
   </si>
   <si>
+    <t>Peroxisome proliferator-activated receptor gamma coactivator-related protein 1 (PGC-1-related coactivator) (PRC)</t>
+  </si>
+  <si>
     <t>SNX19_MOUSE</t>
   </si>
   <si>
+    <t>Sorting nexin-19</t>
+  </si>
+  <si>
     <t>UBP50_MOUSE</t>
   </si>
   <si>
+    <t>Putative ubiquitin carboxyl-terminal hydrolase 50 (EC 3.4.19.12) (Deubiquitinating enzyme 50) (Ubiquitin thioesterase 50) (Ubiquitin-specific-processing protease 50)</t>
+  </si>
+  <si>
     <t>AN13D_MOUSE</t>
   </si>
   <si>
+    <t>Ankyrin repeat domain-containing protein 13D</t>
+  </si>
+  <si>
     <t>FBX42_MOUSE</t>
   </si>
   <si>
+    <t>F-box only protein 42</t>
+  </si>
+  <si>
     <t>MYLK_MOUSE</t>
   </si>
   <si>
+    <t>Myosin light chain kinase, smooth muscle (MLCK) (smMLCK) (EC 2.7.11.18) (Kinase-related protein) (KRP) (Telokin) [Cleaved into: Myosin light chain kinase, smooth muscle, deglutamylated form]</t>
+  </si>
+  <si>
     <t>LRIT2_MOUSE</t>
   </si>
   <si>
+    <t>Leucine-rich repeat, immunoglobulin-like domain and transmembrane domain-containing protein 2 (Leucine-rich repeat-containing protein 22)</t>
+  </si>
+  <si>
     <t>KI18B_MOUSE</t>
   </si>
   <si>
+    <t>Kinesin-like protein KIF18B</t>
+  </si>
+  <si>
     <t>NUP98_MOUSE</t>
   </si>
   <si>
+    <t>Nuclear pore complex protein Nup98-Nup96 (EC 3.4.21.-) [Cleaved into: Nuclear pore complex protein Nup98 (98 kDa nucleoporin) (Nucleoporin Nup98) (Nup98); Nuclear pore complex protein Nup96 (96 kDa nucleoporin) (Nucleoporin Nup96) (Nup96)]</t>
+  </si>
+  <si>
     <t>TLR13_MOUSE</t>
   </si>
   <si>
+    <t>Toll-like receptor 13 (EC 3.2.2.6)</t>
+  </si>
+  <si>
     <t>CTL1_MOUSE</t>
   </si>
   <si>
+    <t>Choline transporter-like protein 1 (Solute carrier family 44 member 1) (CD antigen CD92)</t>
+  </si>
+  <si>
     <t>RL35_MOUSE</t>
   </si>
   <si>
+    <t>60S ribosomal protein L35</t>
+  </si>
+  <si>
     <t>SC6A5_MOUSE</t>
   </si>
   <si>
+    <t>Sodium- and chloride-dependent glycine transporter 2 (GlyT-2) (GlyT2) (Solute carrier family 6 member 5)</t>
+  </si>
+  <si>
     <t>S39A4_MOUSE</t>
   </si>
   <si>
+    <t>Zinc transporter ZIP4 (Activated in W/Wv mouse stomach 2) (mAWMS2) (Solute carrier family 39 member 4) (Zrt- and Irt-like protein 4) (ZIP-4)</t>
+  </si>
+  <si>
     <t>RTL1_MOUSE</t>
   </si>
   <si>
+    <t>Retrotransposon-like protein 1 (Mammalian retrotransposon derived protein 1) (Paternally expressed gene 11 protein) (Retrotransposon-derived protein PEG11)</t>
+  </si>
+  <si>
     <t>P3IP1_MOUSE</t>
   </si>
   <si>
+    <t>Phosphoinositide-3-kinase-interacting protein 1 (Calcineurin-regulated kringle domain-containing protein) (Kringle domain-containing protein HGFL)</t>
+  </si>
+  <si>
     <t>TMC6_MOUSE</t>
   </si>
   <si>
+    <t>Transmembrane channel-like protein 6</t>
+  </si>
+  <si>
     <t>INT3_MOUSE</t>
   </si>
   <si>
+    <t>Integrator complex subunit 3 (Int3) (SOSS complex subunit A) (Sensor of single-strand DNA complex subunit A) (SOSS-A) (Sensor of ssDNA subunit A)</t>
+  </si>
+  <si>
     <t>FBX11_MOUSE</t>
   </si>
   <si>
+    <t>F-box only protein 11</t>
+  </si>
+  <si>
     <t>FBX10_MOUSE</t>
   </si>
   <si>
+    <t>F-box only protein 10</t>
+  </si>
+  <si>
     <t>RUSC2_MOUSE</t>
   </si>
   <si>
+    <t>Iporin (Interacting protein of Rab1) (RUN and SH3 domain-containing protein 2)</t>
+  </si>
+  <si>
     <t>AVL9_MOUSE</t>
   </si>
   <si>
+    <t>Late secretory pathway protein AVL9 homolog</t>
+  </si>
+  <si>
     <t>S3TC2_MOUSE</t>
   </si>
   <si>
+    <t>SH3 domain and tetratricopeptide repeat-containing protein 2</t>
+  </si>
+  <si>
     <t>ZN579_MOUSE</t>
   </si>
   <si>
+    <t>Zinc finger protein 579</t>
+  </si>
+  <si>
     <t>DHX33_MOUSE</t>
   </si>
   <si>
+    <t>ATP-dependent RNA helicase DHX33 (EC 3.6.4.13) (DEAH box protein 33)</t>
+  </si>
+  <si>
     <t>DDRGK_MOUSE</t>
   </si>
   <si>
+    <t>DDRGK domain-containing protein 1 (UFM1-binding and PCI domain-containing protein 1)</t>
+  </si>
+  <si>
     <t>CDK3_MOUSE</t>
   </si>
   <si>
+    <t>Cyclin-dependent kinase 3 (EC 2.7.11.22) (Cell division protein kinase 3)</t>
+  </si>
+  <si>
     <t>MED23_MOUSE</t>
   </si>
   <si>
+    <t>Mediator of RNA polymerase II transcription subunit 23 (Cofactor required for Sp1 transcriptional activation subunit 3) (CRSP complex subunit 3) (Mediator complex subunit 23) (Protein sur-2 homolog) (mSur-2)</t>
+  </si>
+  <si>
     <t>MYOME_MOUSE</t>
   </si>
   <si>
+    <t>Myomegalin (Phosphodiesterase 4D-interacting protein)</t>
+  </si>
+  <si>
     <t>YLAT2_MOUSE</t>
   </si>
   <si>
+    <t>Y+L amino acid transporter 2 (Solute carrier family 7 member 6) (y(+)L-type amino acid transporter 2) (Y+LAT2) (y+LAT-2)</t>
+  </si>
+  <si>
     <t>NAPEP_MOUSE</t>
   </si>
   <si>
+    <t>N-acyl-phosphatidylethanolamine-hydrolyzing phospholipase D (N-acyl phosphatidylethanolamine phospholipase D) (NAPE-PLD) (NAPE-hydrolyzing phospholipase D) (EC 3.1.4.54)</t>
+  </si>
+  <si>
     <t>DTD2_MOUSE</t>
   </si>
   <si>
+    <t>D-aminoacyl-tRNA deacylase 2 (EC 3.1.1.96) (Animalia-specific tRNA deacylase) (ATD) (D-tyrosyl-tRNA deacylase 2) (L-alanyl-tRNA deacylase)</t>
+  </si>
+  <si>
     <t>MTBP_MOUSE</t>
   </si>
   <si>
+    <t>Mdm2-binding protein (mMTBP)</t>
+  </si>
+  <si>
     <t>PI4KB_MOUSE</t>
   </si>
   <si>
+    <t>Phosphatidylinositol 4-kinase beta (PI4K-beta) (PI4Kbeta) (PtdIns 4-kinase beta) (EC 2.7.1.67)</t>
+  </si>
+  <si>
     <t>RPOM_MOUSE</t>
   </si>
   <si>
+    <t>DNA-directed RNA polymerase, mitochondrial (MtRPOL) (EC 2.7.7.6)</t>
+  </si>
+  <si>
     <t>OACYL_MOUSE</t>
   </si>
   <si>
+    <t>O-acyltransferase like protein (Protein oacyl)</t>
+  </si>
+  <si>
     <t>SNPC4_MOUSE</t>
   </si>
   <si>
+    <t>snRNA-activating protein complex subunit 4 (SNAPc subunit 4) (snRNA-activating protein complex 190 kDa subunit) (SNAPc 190 kDa subunit)</t>
+  </si>
+  <si>
     <t>F177A_MOUSE</t>
   </si>
   <si>
+    <t>Protein FAM177A1</t>
+  </si>
+  <si>
     <t>C2D1B_MOUSE</t>
   </si>
   <si>
+    <t>Coiled-coil and C2 domain-containing protein 1B (Five prime repressor element under dual repression-binding protein 2) (FRE under dual repression-binding protein 2) (Freud-2)</t>
+  </si>
+  <si>
     <t>PGTB1_MOUSE</t>
   </si>
   <si>
+    <t>Geranylgeranyl transferase type-1 subunit beta (EC 2.5.1.59) (Geranylgeranyl transferase type I subunit beta) (GGTase-I-beta) (Type I protein geranyl-geranyltransferase subunit beta)</t>
+  </si>
+  <si>
     <t>CRCM1_MOUSE</t>
   </si>
   <si>
+    <t>Calcium release-activated calcium channel protein 1 (Protein orai-1) (Transmembrane protein 142A)</t>
+  </si>
+  <si>
     <t>UD2A3_MOUSE</t>
   </si>
   <si>
+    <t>UDP-glucuronosyltransferase 2A3 (UDPGT 2A3) (EC 2.4.1.17)</t>
+  </si>
+  <si>
     <t>CLP1L_MOUSE</t>
   </si>
   <si>
+    <t>Cleft lip and palate transmembrane protein 1-like protein (CLPTM1-like protein)</t>
+  </si>
+  <si>
     <t>TREF1_MOUSE</t>
   </si>
   <si>
+    <t>Transcriptional-regulating factor 1 (Transcriptional-regulating protein 132) (Zinc finger transcription factor TReP-132)</t>
+  </si>
+  <si>
     <t>TGM4_MOUSE</t>
   </si>
   <si>
+    <t>Protein-glutamine gamma-glutamyltransferase 4 (EC 2.3.2.13) (Experimental autoimmune prostatitis antigen 1) (Transglutaminase-4) (TGase-4)</t>
+  </si>
+  <si>
     <t>POGZ_MOUSE</t>
   </si>
   <si>
+    <t>Pogo transposable element with ZNF domain</t>
+  </si>
+  <si>
     <t>DOCK8_MOUSE</t>
   </si>
   <si>
+    <t>Dedicator of cytokinesis protein 8</t>
+  </si>
+  <si>
     <t>ROBO4_MOUSE</t>
   </si>
   <si>
+    <t>Roundabout homolog 4</t>
+  </si>
+  <si>
     <t>STBD1_MOUSE</t>
   </si>
   <si>
+    <t>Starch-binding domain-containing protein 1 (Genethonin-1) (Glycophagy cargo receptor stbd1)</t>
+  </si>
+  <si>
     <t>PARP9_MOUSE</t>
   </si>
   <si>
+    <t>Protein mono-ADP-ribosyltransferase PARP9 (EC 2.4.2.-) (ADP-ribosyltransferase diphtheria toxin-like 9) (ARTD9) (B aggressive lymphoma protein homolog) (Poly [ADP-ribose] polymerase 9) (PARP-9)</t>
+  </si>
+  <si>
     <t>PHTF2_MOUSE</t>
   </si>
   <si>
+    <t>Putative homeodomain transcription factor 2</t>
+  </si>
+  <si>
     <t>UFL1_MOUSE</t>
   </si>
   <si>
+    <t>E3 UFM1-protein ligase 1 (EC 2.3.2.-) (E3 UFM1-protein transferase 1) (Multiple alpha-helix protein located at ER) (Regulator of C53/LZAP and DDRGK1)</t>
+  </si>
+  <si>
     <t>SET1B_MOUSE</t>
   </si>
   <si>
+    <t>Histone-lysine N-methyltransferase SETD1B (EC 2.1.1.354) (SET domain-containing protein 1B)</t>
+  </si>
+  <si>
     <t>TNS2_MOUSE</t>
   </si>
   <si>
+    <t>Tensin-2 (EC 3.1.3.48) (C1 domain-containing phosphatase and tensin homolog) (C1-TEN) (Tensin-like C1 domain-containing phosphatase)</t>
+  </si>
+  <si>
     <t>TSH3_MOUSE</t>
   </si>
   <si>
+    <t>Teashirt homolog 3 (Zinc finger protein 537)</t>
+  </si>
+  <si>
     <t>CAH12_MOUSE</t>
   </si>
   <si>
+    <t>Carbonic anhydrase 12 (EC 4.2.1.1) (Carbonate dehydratase XII) (Carbonic anhydrase XII) (CA-XII)</t>
+  </si>
+  <si>
     <t>BORG1_MOUSE</t>
   </si>
   <si>
+    <t>Cdc42 effector protein 2 (Binder of Rho GTPases 1)</t>
+  </si>
+  <si>
     <t>SULF1_MOUSE</t>
   </si>
   <si>
+    <t>Extracellular sulfatase Sulf-1 (mSulf-1) (EC 3.1.6.-)</t>
+  </si>
+  <si>
     <t>OBP2A_MOUSE</t>
   </si>
   <si>
+    <t>Odorant-binding protein 2a (Epididymal-specific lipocalin-13)</t>
+  </si>
+  <si>
     <t>PNPT1_MOUSE</t>
   </si>
   <si>
+    <t>Polyribonucleotide nucleotidyltransferase 1, mitochondrial (EC 2.7.7.8) (3'-5' RNA exonuclease OLD35) (PNPase old-35) (Polynucleotide phosphorylase 1) (PNPase 1) (Polynucleotide phosphorylase-like protein)</t>
+  </si>
+  <si>
     <t>KPCD3_MOUSE</t>
   </si>
   <si>
+    <t>Serine/threonine-protein kinase D3 (EC 2.7.11.13) (Protein kinase C nu type) (nPKC-nu)</t>
+  </si>
+  <si>
     <t>GT251_MOUSE</t>
   </si>
   <si>
+    <t>Procollagen galactosyltransferase 1 (EC 2.4.1.50) (Collagen beta(1-O)galactosyltransferase 1) (Glycosyltransferase 25 family member 1) (Hydroxylysine galactosyltransferase 1)</t>
+  </si>
+  <si>
     <t>EPIPL_MOUSE</t>
   </si>
   <si>
+    <t>Epiplakin</t>
+  </si>
+  <si>
     <t>HID1_MOUSE</t>
   </si>
   <si>
+    <t>Protein HID1 (HID1 domain-containing protein) (Protein hid-1 homolog)</t>
+  </si>
+  <si>
     <t>TASP1_MOUSE</t>
   </si>
   <si>
+    <t>Threonine aspartase 1 (Taspase-1) (EC 3.4.25.-) [Cleaved into: Threonine aspartase subunit alpha; Threonine aspartase subunit beta]</t>
+  </si>
+  <si>
     <t>CMBL_MOUSE</t>
   </si>
   <si>
+    <t>Carboxymethylenebutenolidase homolog (EC 3.1.-.-)</t>
+  </si>
+  <si>
     <t>CGRE1_MOUSE</t>
   </si>
   <si>
+    <t>Cell growth regulator with EF hand domain protein 1 (Cell growth regulatory gene 11 protein) (Hydrophobestin)</t>
+  </si>
+  <si>
     <t>SPART_MOUSE</t>
   </si>
   <si>
+    <t>Spartin</t>
+  </si>
+  <si>
     <t>SDSL_MOUSE</t>
   </si>
   <si>
+    <t>Serine dehydratase-like (EC 4.3.1.17) (L-serine deaminase) (L-serine dehydratase/L-threonine deaminase) (L-threonine dehydratase) (TDH) (EC 4.3.1.19) (SDH)</t>
+  </si>
+  <si>
     <t>LUZP1_MOUSE</t>
   </si>
   <si>
+    <t>Leucine zipper protein 1 (Leucine zipper motif-containing protein)</t>
+  </si>
+  <si>
     <t>UHRF1_MOUSE</t>
   </si>
   <si>
+    <t>E3 ubiquitin-protein ligase UHRF1 (EC 2.3.2.27) (Nuclear protein 95) (Nuclear zinc finger protein Np95) (RING-type E3 ubiquitin transferase UHRF1) (Ubiquitin-like PHD and RING finger domain-containing protein 1) (mUhrf1) (Ubiquitin-like-containing PHD and RING finger domains protein 1)</t>
+  </si>
+  <si>
     <t>RBM4B_MOUSE</t>
   </si>
   <si>
+    <t>RNA-binding protein 4B (RNA-binding motif protein 30) (RNA-binding motif protein 4B) (RNA-binding protein 30)</t>
+  </si>
+  <si>
     <t>PAG15_MOUSE</t>
   </si>
   <si>
+    <t>Phospholipase A2 group XV (1-O-acylceramide synthase) (ACS) (LCAT-like lysophospholipase) (LLPL) (EC 3.1.1.5) (Lysophospholipase 3) (Lysosomal phospholipase A and acyltransferase) (EC 2.3.1.-) (EC 3.1.1.32) (EC 3.1.1.4) (Lysosomal phospholipase A2) (LPLA2)</t>
+  </si>
+  <si>
     <t>VPS4A_MOUSE</t>
   </si>
   <si>
+    <t>Vacuolar protein sorting-associated protein 4A (EC 3.6.4.6)</t>
+  </si>
+  <si>
     <t>ING3_MOUSE</t>
   </si>
   <si>
+    <t>Inhibitor of growth protein 3 (p47ING3)</t>
+  </si>
+  <si>
     <t>OL187_MOUSE</t>
   </si>
   <si>
+    <t>Olfactory receptor 187 (Olfactory receptor 183-8)</t>
+  </si>
+  <si>
     <t>O1020_MOUSE</t>
   </si>
   <si>
+    <t>Olfactory receptor 1020 (Olfactory receptor 201-2)</t>
+  </si>
+  <si>
     <t>CDHR5_MOUSE</t>
   </si>
   <si>
+    <t>Cadherin-related family member 5 (Mu-protocadherin)</t>
+  </si>
+  <si>
     <t>CARTF_MOUSE</t>
   </si>
   <si>
+    <t>Calcium-responsive transcription factor (Amyotrophic lateral sclerosis 2 chromosomal region candidate gene 8 protein) (Calcium-response factor) (CaRF)</t>
+  </si>
+  <si>
     <t>VITRN_MOUSE</t>
   </si>
   <si>
+    <t>Vitrin (Akhirin)</t>
+  </si>
+  <si>
     <t>AGRV1_MOUSE</t>
   </si>
   <si>
+    <t>Adhesion G-protein coupled receptor V1 (ADGRV1) (EC 3.4.-.-) (G-protein coupled receptor 98) (Monogenic audiogenic seizure susceptibility protein 1) (MASS1) (Neurepin) (Very large G-protein coupled receptor 1) (VLGR1) [Cleaved into: ADGRV1 subunit alpha; ADGRV1 subunit beta (VLGR1 subunit beta) (Vbeta)]</t>
+  </si>
+  <si>
     <t>EMID1_MOUSE</t>
   </si>
   <si>
+    <t>EMI domain-containing protein 1 (Emilin and multimerin domain-containing protein 1) (Emu1)</t>
+  </si>
+  <si>
     <t>LRRF2_MOUSE</t>
   </si>
   <si>
+    <t>Leucine-rich repeat flightless-interacting protein 2 (LRR FLII-interacting protein 2)</t>
+  </si>
+  <si>
     <t>DNJC9_MOUSE</t>
   </si>
   <si>
+    <t>DnaJ homolog subfamily C member 9</t>
+  </si>
+  <si>
     <t>TMCO4_MOUSE</t>
   </si>
   <si>
+    <t>Transmembrane and coiled-coil domain-containing protein 4</t>
+  </si>
+  <si>
     <t>MRGA2_MOUSE</t>
   </si>
   <si>
+    <t>Mas-related G-protein coupled receptor member A2</t>
+  </si>
+  <si>
     <t>PCDB6_MOUSE</t>
   </si>
   <si>
+    <t>Protocadherin beta-6 (PCDH-beta-6)</t>
+  </si>
+  <si>
     <t>MK08_MOUSE</t>
   </si>
   <si>
+    <t>Mitogen-activated protein kinase 8 (MAP kinase 8) (MAPK 8) (EC 2.7.11.24) (Stress-activated protein kinase JNK1) (c-Jun N-terminal kinase 1)</t>
+  </si>
+  <si>
     <t>ABHD3_MOUSE</t>
   </si>
   <si>
+    <t>Phospholipase ABHD3 (EC 3.1.1.32) (EC 3.1.1.4) (Abhydrolase domain-containing protein 3) (Lung alpha/beta hydrolase 3) (MmLABH3)</t>
+  </si>
+  <si>
     <t>LPIN1_MOUSE</t>
   </si>
   <si>
+    <t>Phosphatidate phosphatase LPIN1 (EC 3.1.3.4) (Fatty liver dystrophy protein) (Lipin-1)</t>
+  </si>
+  <si>
     <t>SMC1B_MOUSE</t>
   </si>
   <si>
+    <t>Structural maintenance of chromosomes protein 1B (SMC protein 1B) (SMC-1-beta) (SMC-1B)</t>
+  </si>
+  <si>
     <t>VPS16_MOUSE</t>
   </si>
   <si>
+    <t>Vacuolar protein sorting-associated protein 16 homolog (mVPS16)</t>
+  </si>
+  <si>
     <t>GCP2_MOUSE</t>
   </si>
   <si>
+    <t>Gamma-tubulin complex component 2 (GCP-2)</t>
+  </si>
+  <si>
     <t>SC5A2_MOUSE</t>
   </si>
   <si>
+    <t>Sodium/glucose cotransporter 2 (Na(+)/glucose cotransporter 2) (Low affinity sodium-glucose cotransporter) (Solute carrier family 5 member 2)</t>
+  </si>
+  <si>
     <t>GTPB3_MOUSE</t>
   </si>
   <si>
+    <t>tRNA modification GTPase GTPBP3, mitochondrial (GTP-binding protein 3)</t>
+  </si>
+  <si>
     <t>MTO1_MOUSE</t>
   </si>
   <si>
+    <t>Protein MTO1 homolog, mitochondrial</t>
+  </si>
+  <si>
     <t>NMNA3_MOUSE</t>
   </si>
   <si>
+    <t>Nicotinamide/nicotinic acid mononucleotide adenylyltransferase 3 (NMN/NaMN adenylyltransferase 3) (EC 2.7.7.1) (EC 2.7.7.18) (Nicotinamide-nucleotide adenylyltransferase 3) (NMN adenylyltransferase 3) (Nicotinate-nucleotide adenylyltransferase 3) (NaMN adenylyltransferase 3)</t>
+  </si>
+  <si>
     <t>PPR3A_MOUSE</t>
   </si>
   <si>
+    <t>Protein phosphatase 1 regulatory subunit 3A (Protein phosphatase 1 glycogen-associated regulatory subunit) (Protein phosphatase type-1 glycogen targeting subunit) (RG1)</t>
+  </si>
+  <si>
     <t>EH1L1_MOUSE</t>
   </si>
   <si>
+    <t>EH domain-binding protein 1-like protein 1 (Tangerin)</t>
+  </si>
+  <si>
     <t>M10L1_MOUSE</t>
   </si>
   <si>
+    <t>RNA helicase Mov10l1 (EC 3.6.4.13) (Cardiac helicase activated by MEF2 protein) (Cardiac-specific RNA helicase) (Moloney leukemia virus 10-like protein 1 homolog) (MOV10-like protein 1 homolog)</t>
+  </si>
+  <si>
     <t>MLXPL_MOUSE</t>
   </si>
   <si>
+    <t>Carbohydrate-responsive element-binding protein (ChREBP) (MLX interactor) (MLX-interacting protein-like) (Williams-Beuren syndrome chromosomal region 14 protein homolog)</t>
+  </si>
+  <si>
     <t>ARIP4_MOUSE</t>
   </si>
   <si>
+    <t>Helicase ARIP4 (EC 3.6.4.12) (Androgen receptor-interacting protein 4) (RAD54-like protein 2) (Steroid receptor-interacting SNF2 domain-containing protein-like)</t>
+  </si>
+  <si>
     <t>RB27B_MOUSE</t>
   </si>
   <si>
+    <t>Ras-related protein Rab-27B (EC 3.6.5.2)</t>
+  </si>
+  <si>
     <t>CPSF5_MOUSE</t>
   </si>
   <si>
+    <t>Cleavage and polyadenylation specificity factor subunit 5 (Nucleoside diphosphate-linked moiety X motif 21) (Nudix motif 21) (Nudix hydrolase 21)</t>
+  </si>
+  <si>
     <t>CTBL1_MOUSE</t>
   </si>
   <si>
+    <t>Beta-catenin-like protein 1 (Nuclear-associated protein) (NAP)</t>
+  </si>
+  <si>
     <t>MITOS_MOUSE</t>
   </si>
   <si>
+    <t>Mitochondrial potassium channel ATP-binding subunit (ATP-binding cassette sub-family B member 8, mitochondrial) (ABCB8) (Mitochondrial sulfonylurea-receptor) (MITOSUR)</t>
+  </si>
+  <si>
     <t>SNX7_MOUSE</t>
   </si>
   <si>
+    <t>Sorting nexin-7</t>
+  </si>
+  <si>
     <t>ZCHC8_MOUSE</t>
   </si>
   <si>
+    <t>Zinc finger CCHC domain-containing protein 8 (TRAMP-like complex RNA-binding factor ZCCHC8)</t>
+  </si>
+  <si>
     <t>MMS19_MOUSE</t>
   </si>
   <si>
+    <t>MMS19 nucleotide excision repair protein homolog (MET18 homolog) (MMS19-like protein)</t>
+  </si>
+  <si>
     <t>LAMP5_MOUSE</t>
   </si>
   <si>
+    <t>Lysosome-associated membrane glycoprotein 5 (Brain and dendritic cell-associated LAMP) (Brain-associated LAMP-like protein) (BAD-LAMP) (Lysosome-associated membrane protein 5) (LAMP-5)</t>
+  </si>
+  <si>
     <t>KRT34_MOUSE</t>
   </si>
   <si>
+    <t>Keratin, type I cuticular Ha4 (Hair keratin, type I Ha4) (Keratin-34) (K34)</t>
+  </si>
+  <si>
     <t>CCD91_MOUSE</t>
   </si>
   <si>
+    <t>Coiled-coil domain-containing protein 91 (GGA-binding partner)</t>
+  </si>
+  <si>
     <t>CD036_MOUSE</t>
   </si>
   <si>
+    <t>Uncharacterized protein C4orf36 homolog</t>
+  </si>
+  <si>
     <t>ZN654_MOUSE</t>
   </si>
   <si>
+    <t>Zinc finger protein 654</t>
+  </si>
+  <si>
     <t>RM12_MOUSE</t>
   </si>
   <si>
+    <t>39S ribosomal protein L12, mitochondrial (L12mt) (MRP-L12)</t>
+  </si>
+  <si>
     <t>SRPRA_MOUSE</t>
   </si>
   <si>
+    <t>Signal recognition particle receptor subunit alpha (SR-alpha) (Docking protein alpha) (DP-alpha)</t>
+  </si>
+  <si>
     <t>SWT1_MOUSE</t>
   </si>
   <si>
+    <t>Transcriptional protein SWT1</t>
+  </si>
+  <si>
     <t>OSBL3_MOUSE</t>
   </si>
   <si>
+    <t>Oxysterol-binding protein-related protein 3 (ORP-3) (OSBP-related protein 3)</t>
+  </si>
+  <si>
     <t>ENTP4_MOUSE</t>
   </si>
   <si>
+    <t>Ectonucleoside triphosphate diphosphohydrolase 4 (NTPDase 4) (EC 3.6.1.6) (Lysosomal apyrase-like protein of 70 kDa) (Uridine-diphosphatase) (UDPase)</t>
+  </si>
+  <si>
     <t>DJC10_MOUSE</t>
   </si>
   <si>
+    <t>DnaJ homolog subfamily C member 10 (EC 1.8.4.-) (Endoplasmic reticulum DNA J domain-containing protein 5) (ER-resident protein ERdj5) (ERdj5) (Endoplasmic reticulum DnaJ-PDI fusion protein 1) (J domain-containing protein disulfide isomerase-like protein) (J domain-containing PDI-like protein) (JPDI)</t>
+  </si>
+  <si>
     <t>MPPA_MOUSE</t>
   </si>
   <si>
+    <t>Mitochondrial-processing peptidase subunit alpha (Alpha-MPP) (Inactive zinc metalloprotease alpha) (P-55)</t>
+  </si>
+  <si>
     <t>PK1IP_MOUSE</t>
   </si>
   <si>
+    <t>p21-activated protein kinase-interacting protein 1 (PAK1-interacting protein 1) (Putative PAK inhibitor Skb15)</t>
+  </si>
+  <si>
     <t>ERAP1_MOUSE</t>
   </si>
   <si>
+    <t>Endoplasmic reticulum aminopeptidase 1 (EC 3.4.11.-) (ARTS-1) (Adipocyte-derived leucine aminopeptidase) (A-LAP) (Aminopeptidase PILS) (Puromycin-insensitive leucyl-specific aminopeptidase) (PILS-AP) (VEGF-induced aminopeptidase)</t>
+  </si>
+  <si>
     <t>KRT81_MOUSE</t>
   </si>
   <si>
+    <t>Keratin, type II cuticular Hb1 (Keratin-81) (K81) (Type II hair keratin Hb1)</t>
+  </si>
+  <si>
     <t>SGK3_MOUSE</t>
   </si>
   <si>
+    <t>Serine/threonine-protein kinase Sgk3 (EC 2.7.11.1) (Cytokine-independent survival kinase) (Serum/glucocorticoid-regulated kinase 3) (Serum/glucocorticoid-regulated kinase-like)</t>
+  </si>
+  <si>
     <t>S15A2_MOUSE</t>
   </si>
   <si>
+    <t>Solute carrier family 15 member 2 (Kidney H(+)/peptide cotransporter) (Oligopeptide transporter, kidney isoform) (Peptide transporter 2)</t>
+  </si>
+  <si>
     <t>CCG3_MOUSE</t>
   </si>
   <si>
+    <t>Voltage-dependent calcium channel gamma-3 subunit (Neuronal voltage-gated calcium channel gamma-3 subunit) (Transmembrane AMPAR regulatory protein gamma-3) (TARP gamma-3)</t>
+  </si>
+  <si>
     <t>SCN5A_MOUSE</t>
   </si>
   <si>
+    <t>Sodium channel protein type 5 subunit alpha (Sodium channel protein cardiac muscle subunit alpha) (Sodium channel protein type V subunit alpha) (Voltage-gated sodium channel subunit alpha Nav1.5) (mH1)</t>
+  </si>
+  <si>
     <t>GLTP_MOUSE</t>
   </si>
   <si>
+    <t>Glycolipid transfer protein (GLTP)</t>
+  </si>
+  <si>
     <t>CABP5_MOUSE</t>
   </si>
   <si>
+    <t>Calcium-binding protein 5 (CaBP5)</t>
+  </si>
+  <si>
     <t>CABP1_MOUSE</t>
   </si>
   <si>
+    <t>Calcium-binding protein 1 (CaBP1)</t>
+  </si>
+  <si>
     <t>BAG3_MOUSE</t>
   </si>
   <si>
+    <t>BAG family molecular chaperone regulator 3 (BAG-3) (Bcl-2-associated athanogene 3) (Bcl-2-binding protein Bis)</t>
+  </si>
+  <si>
     <t>PRG4_MOUSE</t>
   </si>
   <si>
+    <t>Proteoglycan 4 (Lubricin) (Megakaryocyte-stimulating factor) (Superficial zone proteoglycan) [Cleaved into: Proteoglycan 4 C-terminal part]</t>
+  </si>
+  <si>
     <t>CP341_MOUSE</t>
   </si>
   <si>
+    <t>Cytochrome P450 3A41 (EC 1.14.14.1)</t>
+  </si>
+  <si>
     <t>CYH1_MOUSE</t>
   </si>
   <si>
+    <t>Cytohesin-1 (PH, SEC7 and coiled-coil domain-containing protein 1) (CLM1) (SEC7 homolog A) (mSec7-1)</t>
+  </si>
+  <si>
     <t>VAPB_MOUSE</t>
   </si>
   <si>
+    <t>Vesicle-associated membrane protein-associated protein B (VAMP-B) (VAMP-associated protein B) (VAP-B) (VAMP-associated protein 33b)</t>
+  </si>
+  <si>
     <t>PKHB1_MOUSE</t>
   </si>
   <si>
+    <t>Pleckstrin homology domain-containing family B member 1 (PH domain-containing family B member 1) (Evectin-1) (PH domain-containing protein in retina 1) (PHRET1) (Pleckstrin homology domain retinal protein 1)</t>
+  </si>
+  <si>
     <t>DNJB8_MOUSE</t>
   </si>
   <si>
+    <t>DnaJ homolog subfamily B member 8 (mDj6)</t>
+  </si>
+  <si>
     <t>DIC_MOUSE</t>
   </si>
   <si>
+    <t>Mitochondrial dicarboxylate carrier (Solute carrier family 25 member 10)</t>
+  </si>
+  <si>
     <t>NUMB_MOUSE</t>
   </si>
   <si>
+    <t>Protein numb homolog (m-Nb) (m-Numb)</t>
+  </si>
+  <si>
     <t>NUBP1_MOUSE</t>
   </si>
   <si>
+    <t>Cytosolic Fe-S cluster assembly factor NUBP1 (Nucleotide-binding protein 1) (NBP 1)</t>
+  </si>
+  <si>
     <t>TBL2_MOUSE</t>
   </si>
   <si>
+    <t>Transducin beta-like protein 2</t>
+  </si>
+  <si>
     <t>SLIT2_MOUSE</t>
   </si>
   <si>
+    <t>Slit homolog 2 protein (Slit-2) [Cleaved into: Slit homolog 2 protein N-product; Slit homolog 2 protein C-product]</t>
+  </si>
+  <si>
     <t>KTNA1_MOUSE</t>
   </si>
   <si>
+    <t>Katanin p60 ATPase-containing subunit A1 (Katanin p60 subunit A1) (EC 5.6.1.1) (Lipotransin) (p60 katanin)</t>
+  </si>
+  <si>
     <t>B4GT6_MOUSE</t>
   </si>
   <si>
+    <t>Beta-1,4-galactosyltransferase 6 (Beta-1,4-GalTase 6) (Beta4Gal-T6) (b4Gal-T6) (EC 2.4.1.-) (Glucosylceramide beta-1,4-galactosyltransferase) (EC 2.4.1.274) (Lactosylceramide synthase) (LacCer synthase) (UDP-Gal:beta-GlcNAc beta-1,4-galactosyltransferase 6) (UDP-Gal:glucosylceramide beta-1,4-galactosyltransferase) (UDP-galactose:beta-N-acetylglucosamine beta-1,4-galactosyltransferase 6)</t>
+  </si>
+  <si>
     <t>NPC2_MOUSE</t>
   </si>
   <si>
+    <t>NPC intracellular cholesterol transporter 2 (Epididymal secretory protein E1) (mE1) (Niemann Pick type C2 protein homolog)</t>
+  </si>
+  <si>
     <t>S1PR3_MOUSE</t>
   </si>
   <si>
+    <t>Sphingosine 1-phosphate receptor 3 (S1P receptor 3) (S1P3) (Endothelial differentiation G-protein coupled receptor 3) (Lysophospholipid receptor B3) (Sphingosine 1-phosphate receptor Edg-3) (S1P receptor Edg-3)</t>
+  </si>
+  <si>
     <t>RED_MOUSE</t>
   </si>
   <si>
+    <t>Protein Red (Cytokine IK) (IK factor) (Protein RER)</t>
+  </si>
+  <si>
     <t>CDC45_MOUSE</t>
   </si>
   <si>
+    <t>Cell division control protein 45 homolog (PORC-PI-1)</t>
+  </si>
+  <si>
     <t>BAZ1B_MOUSE</t>
   </si>
   <si>
+    <t>Tyrosine-protein kinase BAZ1B (EC 2.7.10.2) (Bromodomain adjacent to zinc finger domain protein 1B) (Williams syndrome transcription factor homolog) (Williams-Beuren syndrome chromosomal region 9 protein homolog)</t>
+  </si>
+  <si>
     <t>I18RA_MOUSE</t>
   </si>
   <si>
+    <t>Interleukin-18 receptor accessory protein (IL-18 receptor accessory protein) (IL-18RAcP) (EC 3.2.2.6) (Accessory protein-like) (AcPL) (CD218 antigen-like family member B) (IL-1R accessory protein-like) (IL-1RAcPL) (Interleukin-18 receptor accessory protein-like) (Interleukin-18 receptor beta) (IL-18R-beta) (IL-18Rbeta) (CD antigen CD218b)</t>
+  </si>
+  <si>
     <t>MTMR7_MOUSE</t>
   </si>
   <si>
+    <t>Myotubularin-related protein 7 (Inositol 1,3-bisphosphate phosphatase) (EC 3.1.3.-) (Phosphatidylinositol-3-phosphate phosphatase) (EC 3.1.3.64)</t>
+  </si>
+  <si>
     <t>S23A1_MOUSE</t>
   </si>
   <si>
+    <t>Solute carrier family 23 member 1 (Na(+)/L-ascorbic acid transporter 1) (Sodium-dependent vitamin C transporter 1) (Yolk sac permease-like molecule 3)</t>
+  </si>
+  <si>
     <t>HDAC6_MOUSE</t>
+  </si>
+  <si>
+    <t>Histone deacetylase 6 (HD6) (EC 3.5.1.98) (Histone deacetylase mHDA2) (Tubulin-lysine deacetylase HDAC6) (EC 3.5.1.-)</t>
   </si>
 </sst>
 </file>
@@ -1152,1355 +1959,2162 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A269"/>
+  <dimension ref="A1:B269"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
+        <v>32</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
+        <v>38</v>
+      </c>
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
+        <v>40</v>
+      </c>
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
+        <v>42</v>
+      </c>
+      <c r="B22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
+        <v>44</v>
+      </c>
+      <c r="B23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
+        <v>46</v>
+      </c>
+      <c r="B24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
+        <v>48</v>
+      </c>
+      <c r="B25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
+        <v>50</v>
+      </c>
+      <c r="B26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
+        <v>52</v>
+      </c>
+      <c r="B27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
+        <v>54</v>
+      </c>
+      <c r="B28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
+        <v>56</v>
+      </c>
+      <c r="B29" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
+        <v>58</v>
+      </c>
+      <c r="B30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
+        <v>60</v>
+      </c>
+      <c r="B31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
+        <v>62</v>
+      </c>
+      <c r="B32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
+        <v>64</v>
+      </c>
+      <c r="B33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
+        <v>66</v>
+      </c>
+      <c r="B34" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
+        <v>68</v>
+      </c>
+      <c r="B35" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
+        <v>70</v>
+      </c>
+      <c r="B36" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
+        <v>72</v>
+      </c>
+      <c r="B37" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
+        <v>74</v>
+      </c>
+      <c r="B38" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
+        <v>76</v>
+      </c>
+      <c r="B39" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
+        <v>78</v>
+      </c>
+      <c r="B40" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
+        <v>80</v>
+      </c>
+      <c r="B41" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1">
+        <v>82</v>
+      </c>
+      <c r="B42" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1">
+        <v>84</v>
+      </c>
+      <c r="B43" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1">
+        <v>86</v>
+      </c>
+      <c r="B44" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1">
+        <v>88</v>
+      </c>
+      <c r="B45" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1">
+        <v>90</v>
+      </c>
+      <c r="B46" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1">
+        <v>92</v>
+      </c>
+      <c r="B47" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
+        <v>94</v>
+      </c>
+      <c r="B48" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1">
+        <v>96</v>
+      </c>
+      <c r="B49" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1">
+        <v>98</v>
+      </c>
+      <c r="B50" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1">
+        <v>100</v>
+      </c>
+      <c r="B51" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1">
+        <v>102</v>
+      </c>
+      <c r="B52" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1">
+        <v>104</v>
+      </c>
+      <c r="B53" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1">
+        <v>106</v>
+      </c>
+      <c r="B54" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1">
+        <v>108</v>
+      </c>
+      <c r="B55" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1">
+        <v>110</v>
+      </c>
+      <c r="B56" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1">
+        <v>112</v>
+      </c>
+      <c r="B57" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1">
+        <v>114</v>
+      </c>
+      <c r="B58" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1">
+        <v>116</v>
+      </c>
+      <c r="B59" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1">
+        <v>118</v>
+      </c>
+      <c r="B60" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1">
+        <v>120</v>
+      </c>
+      <c r="B61" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1">
+        <v>122</v>
+      </c>
+      <c r="B62" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1">
+        <v>124</v>
+      </c>
+      <c r="B63" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1">
+        <v>126</v>
+      </c>
+      <c r="B64" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1">
+        <v>128</v>
+      </c>
+      <c r="B65" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1">
+        <v>130</v>
+      </c>
+      <c r="B66" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1">
+        <v>132</v>
+      </c>
+      <c r="B67" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1">
+        <v>134</v>
+      </c>
+      <c r="B68" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1">
+        <v>136</v>
+      </c>
+      <c r="B69" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1">
+        <v>138</v>
+      </c>
+      <c r="B70" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1">
+        <v>140</v>
+      </c>
+      <c r="B71" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1">
+        <v>142</v>
+      </c>
+      <c r="B72" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1">
+        <v>144</v>
+      </c>
+      <c r="B73" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1">
+        <v>146</v>
+      </c>
+      <c r="B74" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1">
+        <v>148</v>
+      </c>
+      <c r="B75" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1">
+        <v>150</v>
+      </c>
+      <c r="B76" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1">
+        <v>152</v>
+      </c>
+      <c r="B77" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1">
+        <v>154</v>
+      </c>
+      <c r="B78" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1">
+        <v>156</v>
+      </c>
+      <c r="B79" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1">
+        <v>158</v>
+      </c>
+      <c r="B80" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1">
+        <v>160</v>
+      </c>
+      <c r="B81" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1">
+        <v>162</v>
+      </c>
+      <c r="B82" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1">
+        <v>164</v>
+      </c>
+      <c r="B83" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1">
+        <v>166</v>
+      </c>
+      <c r="B84" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1">
+        <v>168</v>
+      </c>
+      <c r="B85" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1">
+        <v>170</v>
+      </c>
+      <c r="B86" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1">
+        <v>172</v>
+      </c>
+      <c r="B87" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1">
+        <v>174</v>
+      </c>
+      <c r="B88" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1">
+        <v>176</v>
+      </c>
+      <c r="B89" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1">
+        <v>178</v>
+      </c>
+      <c r="B90" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1">
+        <v>180</v>
+      </c>
+      <c r="B91" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1">
+        <v>182</v>
+      </c>
+      <c r="B92" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1">
+        <v>184</v>
+      </c>
+      <c r="B93" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1">
+        <v>186</v>
+      </c>
+      <c r="B94" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1">
+        <v>188</v>
+      </c>
+      <c r="B95" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1">
+        <v>190</v>
+      </c>
+      <c r="B96" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1">
+        <v>192</v>
+      </c>
+      <c r="B97" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1">
+        <v>194</v>
+      </c>
+      <c r="B98" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1">
+        <v>196</v>
+      </c>
+      <c r="B99" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1">
+        <v>198</v>
+      </c>
+      <c r="B100" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1">
+        <v>200</v>
+      </c>
+      <c r="B101" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1">
+        <v>202</v>
+      </c>
+      <c r="B102" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1">
+        <v>204</v>
+      </c>
+      <c r="B103" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1">
+        <v>206</v>
+      </c>
+      <c r="B104" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1">
+        <v>208</v>
+      </c>
+      <c r="B105" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1">
+        <v>210</v>
+      </c>
+      <c r="B106" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1">
+        <v>212</v>
+      </c>
+      <c r="B107" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
       <c r="A108" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1">
+        <v>214</v>
+      </c>
+      <c r="B108" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
       <c r="A109" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1">
+        <v>216</v>
+      </c>
+      <c r="B109" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1">
+        <v>218</v>
+      </c>
+      <c r="B110" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
       <c r="A111" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1">
+        <v>220</v>
+      </c>
+      <c r="B111" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
       <c r="A112" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1">
+        <v>222</v>
+      </c>
+      <c r="B112" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
       <c r="A113" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1">
+        <v>224</v>
+      </c>
+      <c r="B113" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1">
+        <v>226</v>
+      </c>
+      <c r="B114" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1">
+        <v>228</v>
+      </c>
+      <c r="B115" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
       <c r="A116" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1">
+        <v>230</v>
+      </c>
+      <c r="B116" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
       <c r="A117" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1">
+        <v>232</v>
+      </c>
+      <c r="B117" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
       <c r="A118" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1">
+        <v>234</v>
+      </c>
+      <c r="B118" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1">
+        <v>236</v>
+      </c>
+      <c r="B119" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1">
+        <v>238</v>
+      </c>
+      <c r="B120" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
       <c r="A121" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1">
+        <v>240</v>
+      </c>
+      <c r="B121" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
       <c r="A122" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1">
+        <v>242</v>
+      </c>
+      <c r="B122" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
       <c r="A123" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1">
+        <v>244</v>
+      </c>
+      <c r="B123" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
       <c r="A124" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1">
+        <v>246</v>
+      </c>
+      <c r="B124" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
       <c r="A125" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1">
+        <v>248</v>
+      </c>
+      <c r="B125" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
       <c r="A126" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1">
+        <v>250</v>
+      </c>
+      <c r="B126" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
       <c r="A127" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1">
+        <v>252</v>
+      </c>
+      <c r="B127" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
       <c r="A128" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1">
+        <v>254</v>
+      </c>
+      <c r="B128" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
       <c r="A129" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1">
+        <v>256</v>
+      </c>
+      <c r="B129" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
       <c r="A130" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1">
+        <v>258</v>
+      </c>
+      <c r="B130" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
       <c r="A131" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1">
+        <v>260</v>
+      </c>
+      <c r="B131" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
       <c r="A132" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1">
+        <v>262</v>
+      </c>
+      <c r="B132" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
       <c r="A133" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1">
+        <v>264</v>
+      </c>
+      <c r="B133" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
       <c r="A134" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1">
+        <v>266</v>
+      </c>
+      <c r="B134" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
       <c r="A135" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1">
+        <v>268</v>
+      </c>
+      <c r="B135" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
       <c r="A136" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1">
+        <v>270</v>
+      </c>
+      <c r="B136" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
       <c r="A137" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1">
+        <v>272</v>
+      </c>
+      <c r="B137" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
       <c r="A138" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1">
+        <v>274</v>
+      </c>
+      <c r="B138" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
       <c r="A139" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1">
+        <v>276</v>
+      </c>
+      <c r="B139" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
       <c r="A140" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1">
+        <v>278</v>
+      </c>
+      <c r="B140" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
       <c r="A141" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1">
+        <v>280</v>
+      </c>
+      <c r="B141" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
       <c r="A142" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1">
+        <v>282</v>
+      </c>
+      <c r="B142" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
       <c r="A143" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1">
+        <v>284</v>
+      </c>
+      <c r="B143" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
       <c r="A144" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1">
+        <v>286</v>
+      </c>
+      <c r="B144" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
       <c r="A145" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1">
+        <v>288</v>
+      </c>
+      <c r="B145" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
       <c r="A146" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1">
+        <v>290</v>
+      </c>
+      <c r="B146" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
       <c r="A147" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1">
+        <v>292</v>
+      </c>
+      <c r="B147" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
       <c r="A148" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1">
+        <v>294</v>
+      </c>
+      <c r="B148" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
       <c r="A149" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1">
+        <v>296</v>
+      </c>
+      <c r="B149" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
       <c r="A150" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1">
+        <v>298</v>
+      </c>
+      <c r="B150" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
       <c r="A151" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1">
+        <v>300</v>
+      </c>
+      <c r="B151" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
       <c r="A152" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1">
+        <v>302</v>
+      </c>
+      <c r="B152" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
       <c r="A153" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="154" spans="1:1">
+        <v>304</v>
+      </c>
+      <c r="B153" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
       <c r="A154" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1">
+        <v>306</v>
+      </c>
+      <c r="B154" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
       <c r="A155" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="156" spans="1:1">
+        <v>308</v>
+      </c>
+      <c r="B155" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
       <c r="A156" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1">
+        <v>310</v>
+      </c>
+      <c r="B156" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
       <c r="A157" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="158" spans="1:1">
+        <v>312</v>
+      </c>
+      <c r="B157" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
       <c r="A158" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1">
+        <v>314</v>
+      </c>
+      <c r="B158" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
       <c r="A159" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="160" spans="1:1">
+        <v>316</v>
+      </c>
+      <c r="B159" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
       <c r="A160" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1">
+        <v>318</v>
+      </c>
+      <c r="B160" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
       <c r="A161" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1">
+        <v>320</v>
+      </c>
+      <c r="B161" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
       <c r="A162" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1">
+        <v>322</v>
+      </c>
+      <c r="B162" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
       <c r="A163" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="164" spans="1:1">
+        <v>324</v>
+      </c>
+      <c r="B163" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
       <c r="A164" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1">
+        <v>326</v>
+      </c>
+      <c r="B164" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
       <c r="A165" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="166" spans="1:1">
+        <v>328</v>
+      </c>
+      <c r="B165" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
       <c r="A166" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="167" spans="1:1">
+        <v>330</v>
+      </c>
+      <c r="B166" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
       <c r="A167" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="168" spans="1:1">
+        <v>332</v>
+      </c>
+      <c r="B167" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
       <c r="A168" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="169" spans="1:1">
+        <v>334</v>
+      </c>
+      <c r="B168" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
       <c r="A169" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="170" spans="1:1">
+        <v>336</v>
+      </c>
+      <c r="B169" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
       <c r="A170" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="171" spans="1:1">
+        <v>338</v>
+      </c>
+      <c r="B170" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
       <c r="A171" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="172" spans="1:1">
+        <v>340</v>
+      </c>
+      <c r="B171" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
       <c r="A172" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="173" spans="1:1">
+        <v>342</v>
+      </c>
+      <c r="B172" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
       <c r="A173" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="174" spans="1:1">
+        <v>344</v>
+      </c>
+      <c r="B173" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
       <c r="A174" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="175" spans="1:1">
+        <v>346</v>
+      </c>
+      <c r="B174" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
       <c r="A175" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="176" spans="1:1">
+        <v>348</v>
+      </c>
+      <c r="B175" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
       <c r="A176" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="177" spans="1:1">
+        <v>350</v>
+      </c>
+      <c r="B176" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
       <c r="A177" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="178" spans="1:1">
+        <v>352</v>
+      </c>
+      <c r="B177" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
       <c r="A178" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="179" spans="1:1">
+        <v>354</v>
+      </c>
+      <c r="B178" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
       <c r="A179" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="180" spans="1:1">
+        <v>356</v>
+      </c>
+      <c r="B179" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
       <c r="A180" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="181" spans="1:1">
+        <v>358</v>
+      </c>
+      <c r="B180" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
       <c r="A181" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="182" spans="1:1">
+        <v>360</v>
+      </c>
+      <c r="B181" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
       <c r="A182" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="183" spans="1:1">
+        <v>362</v>
+      </c>
+      <c r="B182" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
       <c r="A183" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="184" spans="1:1">
+        <v>364</v>
+      </c>
+      <c r="B183" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
       <c r="A184" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="185" spans="1:1">
+        <v>366</v>
+      </c>
+      <c r="B184" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
       <c r="A185" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="186" spans="1:1">
+        <v>368</v>
+      </c>
+      <c r="B185" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2">
       <c r="A186" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="187" spans="1:1">
+        <v>370</v>
+      </c>
+      <c r="B186" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
       <c r="A187" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="188" spans="1:1">
+        <v>372</v>
+      </c>
+      <c r="B187" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
       <c r="A188" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="189" spans="1:1">
+        <v>374</v>
+      </c>
+      <c r="B188" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
       <c r="A189" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="190" spans="1:1">
+        <v>376</v>
+      </c>
+      <c r="B189" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
       <c r="A190" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="191" spans="1:1">
+        <v>378</v>
+      </c>
+      <c r="B190" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2">
       <c r="A191" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="192" spans="1:1">
+        <v>380</v>
+      </c>
+      <c r="B191" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2">
       <c r="A192" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="193" spans="1:1">
+        <v>382</v>
+      </c>
+      <c r="B192" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2">
       <c r="A193" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="194" spans="1:1">
+        <v>384</v>
+      </c>
+      <c r="B193" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2">
       <c r="A194" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="195" spans="1:1">
+        <v>386</v>
+      </c>
+      <c r="B194" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2">
       <c r="A195" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="196" spans="1:1">
+        <v>388</v>
+      </c>
+      <c r="B195" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2">
       <c r="A196" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="197" spans="1:1">
+        <v>390</v>
+      </c>
+      <c r="B196" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2">
       <c r="A197" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="198" spans="1:1">
+        <v>392</v>
+      </c>
+      <c r="B197" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2">
       <c r="A198" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="199" spans="1:1">
+        <v>394</v>
+      </c>
+      <c r="B198" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2">
       <c r="A199" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="200" spans="1:1">
+        <v>396</v>
+      </c>
+      <c r="B199" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2">
       <c r="A200" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="201" spans="1:1">
+        <v>398</v>
+      </c>
+      <c r="B200" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2">
       <c r="A201" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="202" spans="1:1">
+        <v>400</v>
+      </c>
+      <c r="B201" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2">
       <c r="A202" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="203" spans="1:1">
+        <v>402</v>
+      </c>
+      <c r="B202" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2">
       <c r="A203" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="204" spans="1:1">
+        <v>404</v>
+      </c>
+      <c r="B203" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2">
       <c r="A204" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="205" spans="1:1">
+        <v>406</v>
+      </c>
+      <c r="B204" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2">
       <c r="A205" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="206" spans="1:1">
+        <v>408</v>
+      </c>
+      <c r="B205" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2">
       <c r="A206" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="207" spans="1:1">
+        <v>410</v>
+      </c>
+      <c r="B206" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2">
       <c r="A207" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="208" spans="1:1">
+        <v>412</v>
+      </c>
+      <c r="B207" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2">
       <c r="A208" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="209" spans="1:1">
+        <v>414</v>
+      </c>
+      <c r="B208" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2">
       <c r="A209" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="210" spans="1:1">
+        <v>416</v>
+      </c>
+      <c r="B209" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2">
       <c r="A210" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="211" spans="1:1">
+        <v>418</v>
+      </c>
+      <c r="B210" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2">
       <c r="A211" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="212" spans="1:1">
+        <v>420</v>
+      </c>
+      <c r="B211" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2">
       <c r="A212" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="213" spans="1:1">
+        <v>422</v>
+      </c>
+      <c r="B212" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2">
       <c r="A213" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="214" spans="1:1">
+        <v>424</v>
+      </c>
+      <c r="B213" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2">
       <c r="A214" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="215" spans="1:1">
+        <v>426</v>
+      </c>
+      <c r="B214" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2">
       <c r="A215" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="216" spans="1:1">
+        <v>428</v>
+      </c>
+      <c r="B215" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2">
       <c r="A216" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="217" spans="1:1">
+        <v>430</v>
+      </c>
+      <c r="B216" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2">
       <c r="A217" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="218" spans="1:1">
+        <v>432</v>
+      </c>
+      <c r="B217" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2">
       <c r="A218" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="219" spans="1:1">
+        <v>434</v>
+      </c>
+      <c r="B218" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2">
       <c r="A219" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="220" spans="1:1">
+        <v>436</v>
+      </c>
+      <c r="B219" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2">
       <c r="A220" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="221" spans="1:1">
+        <v>438</v>
+      </c>
+      <c r="B220" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2">
       <c r="A221" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="222" spans="1:1">
+        <v>440</v>
+      </c>
+      <c r="B221" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2">
       <c r="A222" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="223" spans="1:1">
+        <v>442</v>
+      </c>
+      <c r="B222" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2">
       <c r="A223" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="224" spans="1:1">
+        <v>444</v>
+      </c>
+      <c r="B223" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2">
       <c r="A224" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="225" spans="1:1">
+        <v>446</v>
+      </c>
+      <c r="B224" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2">
       <c r="A225" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="226" spans="1:1">
+        <v>448</v>
+      </c>
+      <c r="B225" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2">
       <c r="A226" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="227" spans="1:1">
+        <v>450</v>
+      </c>
+      <c r="B226" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2">
       <c r="A227" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="228" spans="1:1">
+        <v>452</v>
+      </c>
+      <c r="B227" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2">
       <c r="A228" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="229" spans="1:1">
+        <v>454</v>
+      </c>
+      <c r="B228" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2">
       <c r="A229" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="230" spans="1:1">
+        <v>456</v>
+      </c>
+      <c r="B229" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2">
       <c r="A230" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="231" spans="1:1">
+        <v>458</v>
+      </c>
+      <c r="B230" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2">
       <c r="A231" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="232" spans="1:1">
+        <v>460</v>
+      </c>
+      <c r="B231" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2">
       <c r="A232" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="233" spans="1:1">
+        <v>462</v>
+      </c>
+      <c r="B232" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2">
       <c r="A233" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="234" spans="1:1">
+        <v>464</v>
+      </c>
+      <c r="B233" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2">
       <c r="A234" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="235" spans="1:1">
+        <v>466</v>
+      </c>
+      <c r="B234" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2">
       <c r="A235" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="236" spans="1:1">
+        <v>468</v>
+      </c>
+      <c r="B235" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2">
       <c r="A236" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="237" spans="1:1">
+        <v>470</v>
+      </c>
+      <c r="B236" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2">
       <c r="A237" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="238" spans="1:1">
+        <v>472</v>
+      </c>
+      <c r="B237" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2">
       <c r="A238" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="239" spans="1:1">
+        <v>474</v>
+      </c>
+      <c r="B238" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2">
       <c r="A239" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="240" spans="1:1">
+        <v>476</v>
+      </c>
+      <c r="B239" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2">
       <c r="A240" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="241" spans="1:1">
+        <v>478</v>
+      </c>
+      <c r="B240" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2">
       <c r="A241" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="242" spans="1:1">
+        <v>480</v>
+      </c>
+      <c r="B241" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2">
       <c r="A242" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="243" spans="1:1">
+        <v>482</v>
+      </c>
+      <c r="B242" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2">
       <c r="A243" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="244" spans="1:1">
+        <v>484</v>
+      </c>
+      <c r="B243" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2">
       <c r="A244" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="245" spans="1:1">
+        <v>486</v>
+      </c>
+      <c r="B244" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2">
       <c r="A245" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="246" spans="1:1">
+        <v>488</v>
+      </c>
+      <c r="B245" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2">
       <c r="A246" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="247" spans="1:1">
+        <v>490</v>
+      </c>
+      <c r="B246" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2">
       <c r="A247" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="248" spans="1:1">
+        <v>492</v>
+      </c>
+      <c r="B247" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2">
       <c r="A248" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="249" spans="1:1">
+        <v>494</v>
+      </c>
+      <c r="B248" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2">
       <c r="A249" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="250" spans="1:1">
+        <v>496</v>
+      </c>
+      <c r="B249" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2">
       <c r="A250" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="251" spans="1:1">
+        <v>498</v>
+      </c>
+      <c r="B250" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2">
       <c r="A251" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="252" spans="1:1">
+        <v>500</v>
+      </c>
+      <c r="B251" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2">
       <c r="A252" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="253" spans="1:1">
+        <v>502</v>
+      </c>
+      <c r="B252" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2">
       <c r="A253" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="254" spans="1:1">
+        <v>504</v>
+      </c>
+      <c r="B253" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2">
       <c r="A254" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="255" spans="1:1">
+        <v>506</v>
+      </c>
+      <c r="B254" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2">
       <c r="A255" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="256" spans="1:1">
+        <v>508</v>
+      </c>
+      <c r="B255" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2">
       <c r="A256" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="257" spans="1:1">
+        <v>510</v>
+      </c>
+      <c r="B256" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2">
       <c r="A257" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="258" spans="1:1">
+        <v>512</v>
+      </c>
+      <c r="B257" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2">
       <c r="A258" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="259" spans="1:1">
+        <v>514</v>
+      </c>
+      <c r="B258" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2">
       <c r="A259" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="260" spans="1:1">
+        <v>516</v>
+      </c>
+      <c r="B259" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2">
       <c r="A260" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="261" spans="1:1">
+        <v>518</v>
+      </c>
+      <c r="B260" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2">
       <c r="A261" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="262" spans="1:1">
+        <v>520</v>
+      </c>
+      <c r="B261" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2">
       <c r="A262" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="263" spans="1:1">
+        <v>522</v>
+      </c>
+      <c r="B262" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2">
       <c r="A263" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="264" spans="1:1">
+        <v>524</v>
+      </c>
+      <c r="B263" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2">
       <c r="A264" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="265" spans="1:1">
+        <v>526</v>
+      </c>
+      <c r="B264" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2">
       <c r="A265" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="266" spans="1:1">
+        <v>528</v>
+      </c>
+      <c r="B265" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2">
       <c r="A266" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="267" spans="1:1">
+        <v>530</v>
+      </c>
+      <c r="B266" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2">
       <c r="A267" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="268" spans="1:1">
+        <v>532</v>
+      </c>
+      <c r="B267" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2">
       <c r="A268" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="269" spans="1:1">
+        <v>534</v>
+      </c>
+      <c r="B268" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2">
       <c r="A269" t="s">
-        <v>268</v>
+        <v>536</v>
+      </c>
+      <c r="B269" t="s">
+        <v>537</v>
       </c>
     </row>
   </sheetData>
